--- a/biology/Botanique/Liste_rouge_des_champignons_de_Suisse/Liste_rouge_des_champignons_de_Suisse.xlsx
+++ b/biology/Botanique/Liste_rouge_des_champignons_de_Suisse/Liste_rouge_des_champignons_de_Suisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste rouge des champignons de Suisse est une liste établie au  niveau national et régional ayant pour but de montrer la situation actuelle de menace pesant sur les espèces. Cette liste est réalisée par l’Institut fédéral de recherches sur la forêt, la neige et le paysage et a été publiée par l’Office fédéral de l'environnement en 2007. Elle constitue la partie suisse de la liste rouge de l'UICN[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste rouge des champignons de Suisse est une liste établie au  niveau national et régional ayant pour but de montrer la situation actuelle de menace pesant sur les espèces. Cette liste est réalisée par l’Institut fédéral de recherches sur la forêt, la neige et le paysage et a été publiée par l’Office fédéral de l'environnement en 2007. Elle constitue la partie suisse de la liste rouge de l'UICN.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Taxons en danger critique (CR)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aleurocystidiellum subcruentatum
@@ -620,7 +634,9 @@
           <t>Taxon en danger (EN)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agaricus altipes
@@ -1010,7 +1026,9 @@
           <t>Taxons vulnérables (VU)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Abortiporus biennis
